--- a/3_Augmentation/Examples for paper/selected_augmentation_examples_for_paper.xlsx
+++ b/3_Augmentation/Examples for paper/selected_augmentation_examples_for_paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42632c7fcf3d8c0e/Desktop/MIDS_Courses/Spring_2022/w266-project-Dera-Evan-Kieran/3_Augmentation/Examples for paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC1048A471DE5A765BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A54F17-6236-45C7-A24F-D1437401BB4D}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_F25DC773A252ABDACC1048A471DE5A765BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A91D95E-2856-41DF-BEFD-38AE65274C42}"/>
   <bookViews>
-    <workbookView xWindow="53325" yWindow="3225" windowWidth="23475" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51675" yWindow="5100" windowWidth="24480" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,32 +1420,152 @@
     <t>Text</t>
   </si>
   <si>
-    <t>random deletion</t>
-  </si>
-  <si>
-    <t>random swap</t>
-  </si>
-  <si>
-    <t>random insertion (EDA, wordnet)</t>
-  </si>
-  <si>
-    <t>synonym  replacement (EDA, wordnet)</t>
-  </si>
-  <si>
-    <t>synonym  replacement (NLPAUG, BERT Base embeddings)</t>
-  </si>
-  <si>
-    <t>random insertion (NLPAUG, BERT Base embeddings)</t>
-  </si>
-  <si>
-    <t>original - post_id: 1160689817224654848_twitter</t>
+    <t>Original Text - post_id: 1160689817224654848_twitter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Random Deletion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Random Swap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Synonym Replacement (EDA, wordnet)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Random Insertion (EDA, wordnet)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Contextual Replacement (NLPAUG, BERT Base embeddings)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Contextual Insertion (NLPAUG, BERT Base embeddings)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,16 +1586,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1484,8 +1618,95 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1496,16 +1717,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9223,80 +9451,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F9A8DD-5B84-4AF1-9366-24D063FE5F7F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="B3:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>459</v>
       </c>
     </row>
